--- a/data/trans_camb/P1804_2016_2023-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1804_2016_2023-Habitat-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-0.9370384079904821</v>
+        <v>-0.9370384079904814</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>-0.0863413979082614</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.4670400402584201</v>
+        <v>-0.4670400402584179</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.076162953049764</v>
+        <v>-3.261608357113419</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.743956025200687</v>
+        <v>-2.866004301424819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.241218211387496</v>
+        <v>-2.322558469074624</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.649480281361287</v>
+        <v>1.518822535745667</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.510548222359001</v>
+        <v>2.519097114920737</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.22916570705699</v>
+        <v>1.310845630794433</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.2079435540816909</v>
+        <v>-0.2079435540816908</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.01310495306401</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.08421478065588618</v>
+        <v>-0.08421478065588579</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5582848394367746</v>
+        <v>-0.5954968605054124</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3419090030325075</v>
+        <v>-0.3615629634295009</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3516218265630902</v>
+        <v>-0.3637564318273118</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5330645169993207</v>
+        <v>0.4300614551507221</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4827796982288639</v>
+        <v>0.4551863237790523</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2503571604675039</v>
+        <v>0.2776856095196184</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.805646514401564</v>
+        <v>2.805646514401563</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1913021943888829</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1608897780522527</v>
+        <v>0.5542937828027262</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.390558281844434</v>
+        <v>-2.115091574155675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2731652715481684</v>
+        <v>-0.3788935324480356</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.433163727614141</v>
+        <v>5.384621382986355</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.591897508540302</v>
+        <v>2.652073314608464</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.325201606083105</v>
+        <v>3.279581984058948</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.4940991097923466</v>
+        <v>0.4940991097923464</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.02195826041394453</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.0176052676012131</v>
+        <v>0.08212836186840231</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2387517317907606</v>
+        <v>-0.2149019022827741</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.03265523460583664</v>
+        <v>-0.04928910597704329</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.132582543512669</v>
+        <v>1.159523811856887</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3550864987233822</v>
+        <v>0.3702078879750204</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5280852824855197</v>
+        <v>0.5012476262187395</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>-2.240137921833726</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-5.426491822115615</v>
+        <v>-5.426491822115616</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-3.882238059731146</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.590144850973785</v>
+        <v>-4.201474924819825</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.931341510234899</v>
+        <v>-8.282836407593667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.614652898689127</v>
+        <v>-5.683793319583279</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.4104301252876288</v>
+        <v>-0.009268886438487601</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.368748793753594</v>
+        <v>-2.703978784265621</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.180606153793266</v>
+        <v>-2.160836394010033</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>-0.4244402752042606</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.4689722993670999</v>
+        <v>-0.4689722993671</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.4580103709038433</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6760332902089742</v>
+        <v>-0.6461232926730118</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.606012667606893</v>
+        <v>-0.6218900208744447</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5876776172065437</v>
+        <v>-0.5866297510412012</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.08307040218305303</v>
+        <v>0.026790971281064</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2494222155331336</v>
+        <v>-0.2677915954689242</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2980523316392629</v>
+        <v>-0.2860637855185161</v>
       </c>
     </row>
     <row r="22">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-0.9467998975923666</v>
+        <v>-0.9467998975923653</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-0.8542969784675849</v>
+        <v>-0.8542969784675822</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.886942522999483</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.610977419229974</v>
+        <v>-3.418323015125531</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.649208919709294</v>
+        <v>-3.423373479928351</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.867282893908104</v>
+        <v>-2.749124514632392</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.564468192481268</v>
+        <v>2.034762783148909</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.652279274849447</v>
+        <v>1.661929723325873</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.054987461524612</v>
+        <v>1.022471249526001</v>
       </c>
     </row>
     <row r="25">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.1042662708289779</v>
+        <v>-0.1042662708289778</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.07083352931406257</v>
+        <v>-0.07083352931406234</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.08327718131863118</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3490985146005712</v>
+        <v>-0.3327981555770934</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2707739455482948</v>
+        <v>-0.249430253690556</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2405930524040369</v>
+        <v>-0.2333300864192173</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2043705906046822</v>
+        <v>0.2571448042236006</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1536678402629709</v>
+        <v>0.1606243078410564</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1163145303678638</v>
+        <v>0.1107283845666375</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-0.1085852915590074</v>
+        <v>-0.1085852915590088</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-1.40239174323923</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.7633747619532033</v>
+        <v>-0.7633747619532048</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.291477466427051</v>
+        <v>-1.40907480363373</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.752699249751227</v>
+        <v>-2.770817681206065</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.712036007379518</v>
+        <v>-1.699141021503497</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.107426262537332</v>
+        <v>1.074790022944455</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1229214145926038</v>
+        <v>-0.0440092327764405</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1401695780248991</v>
+        <v>0.06970157186547858</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.01724822615795825</v>
+        <v>-0.01724822615795847</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>-0.1412533351233798</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.09365251377809036</v>
+        <v>-0.09365251377809053</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1902423893228806</v>
+        <v>-0.2041990039370941</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2561509759102118</v>
+        <v>-0.2582999615678301</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1972668878945052</v>
+        <v>-0.1983708271585776</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1881425976414954</v>
+        <v>0.186363133481439</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.01123874505591579</v>
+        <v>-1.132331735555626e-05</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.01930490416229498</v>
+        <v>0.01030274508968927</v>
       </c>
     </row>
     <row r="34">
